--- a/Output/Output Files/Characterization 110919-636.xlsx
+++ b/Output/Output Files/Characterization 110919-636.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8340" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602 " sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map " sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (2)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (3)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (4)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2360-190602 " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2360-190602" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Map " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Map (2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Map (3)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Map (4)" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_2360" localSheetId="1">#REF!</definedName>
-    <definedName name="_2360" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="1" name="_2360">#REF!</definedName>
+    <definedName localSheetId="0" name="_2360">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2360-190602 '!$1:$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2360-190602 '!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2360-190602'!$1:$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2360-190602'!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Map '!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Map (2)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Map (3)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Map (4)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">'2360-190602 '!$1:$17</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'2360-190602 '!$A$1:$S$39</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Titles">'2360-190602'!$1:$17</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'2360-190602'!$A$1:$S$39</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Map '!$A$1:$BY$45</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'Map (2)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="4" name="_xlnm.Print_Area">'Map (3)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="5" name="_xlnm.Print_Area">'Map (4)'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -33,8 +33,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt formatCode=";;;" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1475,942 +1475,942 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="317">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="56" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="62" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="59" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="63" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="64" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="60" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="61" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="36" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="35" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="40" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="69" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="71" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="74" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="47" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="82" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="47" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="20" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="23" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="82" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="25" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="47" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="65" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="73" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="73" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="27" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="83" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="84" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="53" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="54" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="55" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="57" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="98" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="96" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="93" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="84" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="42" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="89" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="91" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="90" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="98" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="89" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2751,23 +2751,23 @@
   </sheetPr>
   <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="3.42578125" customWidth="1" style="13" min="1" max="1"/>
-    <col width="10.42578125" customWidth="1" style="13" min="2" max="3"/>
-    <col width="18.28515625" customWidth="1" style="13" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="13" min="5" max="5"/>
-    <col width="2.5703125" customWidth="1" style="13" min="6" max="7"/>
-    <col width="5.28515625" customWidth="1" style="13" min="8" max="8"/>
-    <col width="7.42578125" customWidth="1" style="13" min="9" max="19"/>
-    <col width="9.140625" customWidth="1" style="13" min="20" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="13" width="3.42578125"/>
+    <col customWidth="1" max="3" min="2" style="13" width="10.42578125"/>
+    <col customWidth="1" max="4" min="4" style="13" width="18.28515625"/>
+    <col customWidth="1" max="5" min="5" style="13" width="5.28515625"/>
+    <col customWidth="1" max="7" min="6" style="13" width="2.5703125"/>
+    <col customWidth="1" max="8" min="8" style="13" width="5.28515625"/>
+    <col customWidth="1" max="19" min="9" style="13" width="7.42578125"/>
+    <col customWidth="1" max="16384" min="20" style="13" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="39" r="1" s="92" thickBot="1">
       <c r="A1" s="163" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -2788,7 +2788,7 @@
       <c r="R1" s="260" t="n"/>
       <c r="S1" s="260" t="n"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="2" s="92" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
       <c r="R2" s="264" t="n"/>
       <c r="S2" s="262" t="n"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="3" s="92">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       <c r="R3" s="270" t="n"/>
       <c r="S3" s="273" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="4" s="92" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
       <c r="R4" s="260" t="n"/>
       <c r="S4" s="278" t="n"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="5" s="92" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="6" s="92">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="7" s="92">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="8" s="92" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="9" s="92" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -3140,7 +3140,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="10" s="92">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -3185,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="11" s="92">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -3230,7 +3230,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="12" s="92">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="13" s="92">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -3321,7 +3321,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="14" s="92">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -3361,7 +3361,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="15" s="92">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -3405,7 +3405,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="16" s="92" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -3447,7 +3447,7 @@
       <c r="S16" s="289" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row r="17" ht="24" customHeight="1" s="92" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="17" s="92" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
       <c r="A18" s="133" t="n">
         <v>1</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
       <c r="A19" s="137" t="n">
         <v>2</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
       <c r="A20" s="133" t="n">
         <v>3</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
       <c r="A21" s="137" t="n">
         <v>4</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
       <c r="A22" s="133" t="n">
         <v>5</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
       <c r="A23" s="137" t="n">
         <v>6</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
       <c r="A24" s="133" t="n">
         <v>7</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
       <c r="A25" s="137" t="n">
         <v>8</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
       <c r="A26" s="133" t="n">
         <v>9</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
       <c r="A27" s="137" t="n">
         <v>10</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
       <c r="A28" s="133" t="n">
         <v>11</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
       <c r="A29" s="137" t="n">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
       <c r="A30" s="133" t="n">
         <v>13</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
       <c r="A31" s="137" t="n">
         <v>14</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
       <c r="A32" s="133" t="n">
         <v>15</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
       <c r="A33" s="137" t="n">
         <v>17</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
       <c r="A34" s="133" t="n">
         <v>18</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
       <c r="A35" s="137" t="n">
         <v>19</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
       <c r="A36" s="133" t="n">
         <v>20</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
       <c r="A37" s="141" t="n">
         <v>21</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="15.75" r="38" s="92" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -4525,7 +4525,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="92">
+    <row customHeight="1" ht="15.75" r="39" s="92">
       <c r="A39" s="235" t="n"/>
       <c r="O39" s="237" t="n"/>
       <c r="T39" s="91" t="n"/>
@@ -4644,8 +4644,8 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -4665,23 +4665,23 @@
   </sheetPr>
   <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="3.42578125" customWidth="1" style="13" min="1" max="1"/>
-    <col width="10.42578125" customWidth="1" style="13" min="2" max="3"/>
-    <col width="18.28515625" customWidth="1" style="13" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="13" min="5" max="5"/>
-    <col width="2.5703125" customWidth="1" style="13" min="6" max="7"/>
-    <col width="5.28515625" customWidth="1" style="13" min="8" max="8"/>
-    <col width="7.42578125" customWidth="1" style="13" min="9" max="19"/>
-    <col width="9.140625" customWidth="1" style="13" min="20" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="13" width="3.42578125"/>
+    <col customWidth="1" max="3" min="2" style="13" width="10.42578125"/>
+    <col customWidth="1" max="4" min="4" style="13" width="18.28515625"/>
+    <col customWidth="1" max="5" min="5" style="13" width="5.28515625"/>
+    <col customWidth="1" max="7" min="6" style="13" width="2.5703125"/>
+    <col customWidth="1" max="8" min="8" style="13" width="5.28515625"/>
+    <col customWidth="1" max="19" min="9" style="13" width="7.42578125"/>
+    <col customWidth="1" max="16384" min="20" style="13" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="39" r="1" s="92" thickBot="1">
       <c r="A1" s="163" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -4702,7 +4702,7 @@
       <c r="R1" s="260" t="n"/>
       <c r="S1" s="260" t="n"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="2" s="92" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
       <c r="R2" s="264" t="n"/>
       <c r="S2" s="262" t="n"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="3" s="92">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
       <c r="R3" s="270" t="n"/>
       <c r="S3" s="273" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="4" s="92" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
       <c r="R4" s="260" t="n"/>
       <c r="S4" s="278" t="n"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="5" s="92" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="6" s="92">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="7" s="92">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="8" s="92" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="9" s="92" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -5054,7 +5054,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="10" s="92">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -5099,7 +5099,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="11" s="92">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -5144,7 +5144,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="12" s="92">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -5190,7 +5190,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="13" s="92">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -5235,7 +5235,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="14" s="92">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -5275,7 +5275,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="15" s="92">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -5319,7 +5319,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="16" s="92" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -5361,7 +5361,7 @@
       <c r="S16" s="289" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row r="17" ht="24" customHeight="1" s="92" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="17" s="92" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -5434,7 +5434,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
       <c r="A18" s="133" t="n">
         <v>22</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
       <c r="A19" s="137" t="n">
         <v>23</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
       <c r="A20" s="133" t="n">
         <v>24</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
       <c r="A21" s="137" t="n"/>
       <c r="B21" s="307" t="n"/>
       <c r="C21" s="298" t="n"/>
@@ -5608,7 +5608,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
       <c r="A22" s="133" t="n"/>
       <c r="B22" s="307" t="n"/>
       <c r="C22" s="298" t="n"/>
@@ -5641,7 +5641,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
       <c r="A23" s="137" t="n"/>
       <c r="B23" s="307" t="n"/>
       <c r="C23" s="298" t="n"/>
@@ -5674,7 +5674,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
       <c r="A24" s="133" t="n"/>
       <c r="B24" s="307" t="n"/>
       <c r="C24" s="298" t="n"/>
@@ -5707,7 +5707,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
       <c r="A25" s="137" t="n"/>
       <c r="B25" s="307" t="n"/>
       <c r="C25" s="298" t="n"/>
@@ -5740,7 +5740,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
       <c r="A26" s="133" t="n"/>
       <c r="B26" s="307" t="n"/>
       <c r="C26" s="298" t="n"/>
@@ -5773,7 +5773,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
       <c r="A27" s="137" t="n"/>
       <c r="B27" s="307" t="n"/>
       <c r="C27" s="298" t="n"/>
@@ -5806,7 +5806,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
       <c r="A28" s="133" t="n"/>
       <c r="B28" s="307" t="n"/>
       <c r="C28" s="298" t="n"/>
@@ -5839,7 +5839,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
       <c r="A29" s="137" t="n"/>
       <c r="B29" s="307" t="n"/>
       <c r="C29" s="298" t="n"/>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
       <c r="A30" s="133" t="n"/>
       <c r="B30" s="307" t="n"/>
       <c r="C30" s="298" t="n"/>
@@ -5910,7 +5910,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
       <c r="A31" s="137" t="n"/>
       <c r="B31" s="307" t="n"/>
       <c r="C31" s="298" t="n"/>
@@ -5943,7 +5943,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
       <c r="A32" s="133" t="n"/>
       <c r="B32" s="307" t="n"/>
       <c r="C32" s="298" t="n"/>
@@ -5976,7 +5976,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
       <c r="A33" s="137" t="n"/>
       <c r="B33" s="307" t="n"/>
       <c r="C33" s="298" t="n"/>
@@ -6009,7 +6009,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
       <c r="A34" s="133" t="n"/>
       <c r="B34" s="307" t="n"/>
       <c r="C34" s="298" t="n"/>
@@ -6042,7 +6042,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
       <c r="A35" s="137" t="n"/>
       <c r="B35" s="307" t="n"/>
       <c r="C35" s="298" t="n"/>
@@ -6075,7 +6075,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
       <c r="A36" s="133" t="n"/>
       <c r="B36" s="307" t="n"/>
       <c r="C36" s="298" t="n"/>
@@ -6108,7 +6108,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
       <c r="A37" s="141" t="n"/>
       <c r="B37" s="309" t="n"/>
       <c r="C37" s="301" t="n"/>
@@ -6141,7 +6141,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="15.75" r="38" s="92" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="92">
+    <row customHeight="1" ht="15.75" r="39" s="92">
       <c r="A39" s="235" t="n"/>
       <c r="O39" s="237" t="n"/>
       <c r="T39" s="91" t="n"/>
@@ -6321,8 +6321,8 @@
     <mergeCell ref="B33:H33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -6342,16 +6342,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="BU26" sqref="BU26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="244" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -6430,7 +6430,7 @@
       <c r="BX1" s="260" t="n"/>
       <c r="BY1" s="260" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -6509,7 +6509,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -6588,7 +6588,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -6667,7 +6667,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -6746,7 +6746,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -6825,7 +6825,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -6904,7 +6904,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -6983,7 +6983,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -7062,7 +7062,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -7141,7 +7141,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -7220,7 +7220,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -7299,7 +7299,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -7378,7 +7378,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -7457,7 +7457,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -7555,7 +7555,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -7653,7 +7653,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -7751,7 +7751,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -7849,7 +7849,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -7947,7 +7947,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -8045,7 +8045,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -8143,7 +8143,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -8241,7 +8241,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -8339,7 +8339,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -8418,7 +8418,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -8497,7 +8497,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -8576,7 +8576,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -8655,7 +8655,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -8734,7 +8734,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -8813,7 +8813,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -8892,7 +8892,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -8971,7 +8971,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -9050,7 +9050,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -9129,7 +9129,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -9208,7 +9208,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -9287,7 +9287,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -9366,7 +9366,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -9445,7 +9445,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="310" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -9528,7 +9528,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="312" t="inlineStr">
         <is>
           <t>Date</t>
@@ -9613,7 +9613,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="312" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9723,7 +9723,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="312" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -9829,7 +9829,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="312" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -9935,7 +9935,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="312" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -10045,7 +10045,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="312" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -10155,7 +10155,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="315" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -10261,15 +10261,15 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -10294,8 +10294,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -10315,16 +10315,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AU40" sqref="AU40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="244" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -10403,7 +10403,7 @@
       <c r="BX1" s="260" t="n"/>
       <c r="BY1" s="260" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -10482,7 +10482,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -10561,7 +10561,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -10640,7 +10640,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -10719,7 +10719,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -10798,7 +10798,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -10877,7 +10877,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -10956,7 +10956,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -11035,7 +11035,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -11114,7 +11114,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -11193,7 +11193,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -11272,7 +11272,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -11351,7 +11351,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -11430,7 +11430,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -11528,7 +11528,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -11626,7 +11626,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -11724,7 +11724,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -11822,7 +11822,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -11920,7 +11920,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -12018,7 +12018,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -12116,7 +12116,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -12214,7 +12214,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -12312,7 +12312,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -12391,7 +12391,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -12470,7 +12470,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -12549,7 +12549,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -12628,7 +12628,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -12707,7 +12707,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -12786,7 +12786,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -12865,7 +12865,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -12944,7 +12944,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -13023,7 +13023,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -13102,7 +13102,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -13181,7 +13181,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -13260,7 +13260,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -13339,7 +13339,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -13418,7 +13418,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="310" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -13501,7 +13501,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="312" t="inlineStr">
         <is>
           <t>Date</t>
@@ -13586,7 +13586,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="312" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -13696,7 +13696,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="312" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -13802,7 +13802,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="312" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -13908,7 +13908,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="312" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -14018,7 +14018,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="312" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -14128,7 +14128,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="315" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -14234,15 +14234,15 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -14267,8 +14267,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -14288,16 +14288,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="244" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -14376,7 +14376,7 @@
       <c r="BX1" s="260" t="n"/>
       <c r="BY1" s="260" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -14455,7 +14455,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -14534,7 +14534,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -14613,7 +14613,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -14692,7 +14692,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -14771,7 +14771,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -14850,7 +14850,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -14929,7 +14929,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -15008,7 +15008,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -15087,7 +15087,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -15166,7 +15166,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -15245,7 +15245,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -15324,7 +15324,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -15403,7 +15403,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -15501,7 +15501,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -15599,7 +15599,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -15697,7 +15697,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -15795,7 +15795,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -15893,7 +15893,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -15991,7 +15991,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -16089,7 +16089,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -16187,7 +16187,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -16285,7 +16285,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -16364,7 +16364,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -16443,7 +16443,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -16522,7 +16522,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -16601,7 +16601,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -16680,7 +16680,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -16759,7 +16759,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -16838,7 +16838,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -16917,7 +16917,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -16996,7 +16996,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -17075,7 +17075,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -17154,7 +17154,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -17233,7 +17233,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -17312,7 +17312,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -17391,7 +17391,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="310" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -17474,7 +17474,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="312" t="inlineStr">
         <is>
           <t>Date</t>
@@ -17559,7 +17559,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="312" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -17669,7 +17669,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="312" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -17775,7 +17775,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="312" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -17881,7 +17881,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="312" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -17991,7 +17991,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="312" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -18101,7 +18101,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="315" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -18207,15 +18207,15 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -18240,8 +18240,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -18261,16 +18261,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="244" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -18349,7 +18349,7 @@
       <c r="BX1" s="260" t="n"/>
       <c r="BY1" s="260" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -18428,7 +18428,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -18507,7 +18507,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -18586,7 +18586,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -18665,7 +18665,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -18744,7 +18744,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -18823,7 +18823,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -18902,7 +18902,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -18981,7 +18981,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -19060,7 +19060,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -19139,7 +19139,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -19218,7 +19218,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -19297,7 +19297,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -19376,7 +19376,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -19474,7 +19474,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -19572,7 +19572,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -19670,7 +19670,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -19768,7 +19768,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -19866,7 +19866,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -19964,7 +19964,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -20062,7 +20062,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -20160,7 +20160,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -20258,7 +20258,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -20337,7 +20337,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -20416,7 +20416,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -20495,7 +20495,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -20574,7 +20574,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -20653,7 +20653,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -20732,7 +20732,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -20811,7 +20811,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -20890,7 +20890,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -20969,7 +20969,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -21048,7 +21048,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -21127,7 +21127,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -21206,7 +21206,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -21285,7 +21285,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -21364,7 +21364,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="310" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -21447,7 +21447,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="312" t="inlineStr">
         <is>
           <t>Date</t>
@@ -21532,7 +21532,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="312" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -21642,7 +21642,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="312" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -21748,7 +21748,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="312" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -21854,7 +21854,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="312" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -21964,7 +21964,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="312" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -22074,7 +22074,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="315" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -22180,15 +22180,15 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -22213,8 +22213,8 @@
     <mergeCell ref="K45:Y45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>

--- a/Output/Output Files/Characterization 110919-636.xlsx
+++ b/Output/Output Files/Characterization 110919-636.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8340" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602 " sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map " sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (2)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (3)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (4)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2360-190602 " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2360-190602" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Map " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Map (2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Map (3)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Map (4)" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_2360" localSheetId="1">#REF!</definedName>
-    <definedName name="_2360" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="1" name="_2360">#REF!</definedName>
+    <definedName localSheetId="0" name="_2360">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2360-190602 '!$1:$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2360-190602 '!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2360-190602'!$1:$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2360-190602'!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Map '!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Map (2)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Map (3)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Map (4)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">'2360-190602 '!$1:$17</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'2360-190602 '!$A$1:$S$39</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Titles">'2360-190602'!$1:$17</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'2360-190602'!$A$1:$S$39</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Map '!$A$1:$BY$45</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'Map (2)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="4" name="_xlnm.Print_Area">'Map (3)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="5" name="_xlnm.Print_Area">'Map (4)'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -33,8 +33,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt formatCode=";;;" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1475,942 +1475,942 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="317">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="56" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="62" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="59" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="63" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="64" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="60" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="61" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="36" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="35" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="40" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="69" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="71" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="74" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="47" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="82" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="47" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="20" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="23" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="82" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="25" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="47" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="65" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="73" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="73" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="27" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="83" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="84" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="53" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="54" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="55" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="57" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="98" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="96" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="93" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="84" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="42" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="89" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="91" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="90" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="98" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="89" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2749,25 +2749,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="3.42578125" customWidth="1" style="13" min="1" max="1"/>
-    <col width="10.42578125" customWidth="1" style="13" min="2" max="3"/>
-    <col width="18.28515625" customWidth="1" style="13" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="13" min="5" max="5"/>
-    <col width="2.5703125" customWidth="1" style="13" min="6" max="7"/>
-    <col width="5.28515625" customWidth="1" style="13" min="8" max="8"/>
-    <col width="7.42578125" customWidth="1" style="13" min="9" max="19"/>
-    <col width="9.140625" customWidth="1" style="13" min="20" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="13" width="3.42578125"/>
+    <col customWidth="1" max="3" min="2" style="13" width="10.42578125"/>
+    <col customWidth="1" max="4" min="4" style="13" width="18.28515625"/>
+    <col customWidth="1" max="5" min="5" style="13" width="5.28515625"/>
+    <col customWidth="1" max="7" min="6" style="13" width="2.5703125"/>
+    <col customWidth="1" max="8" min="8" style="13" width="5.28515625"/>
+    <col customWidth="1" max="19" min="9" style="13" width="7.42578125"/>
+    <col customWidth="1" max="16384" min="20" style="13" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="39" r="1" s="92" thickBot="1">
       <c r="A1" s="163" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -2788,7 +2788,7 @@
       <c r="R1" s="260" t="n"/>
       <c r="S1" s="260" t="n"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="2" s="92" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
       <c r="R2" s="264" t="n"/>
       <c r="S2" s="262" t="n"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="3" s="92">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       <c r="R3" s="270" t="n"/>
       <c r="S3" s="273" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="4" s="92" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
       <c r="R4" s="260" t="n"/>
       <c r="S4" s="278" t="n"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="5" s="92" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="6" s="92">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="7" s="92">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="8" s="92" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="9" s="92" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -3140,7 +3140,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="10" s="92">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -3185,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="11" s="92">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -3230,7 +3230,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="12" s="92">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="13" s="92">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -3321,7 +3321,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="14" s="92">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -3361,7 +3361,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="15" s="92">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -3405,7 +3405,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="16" s="92" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -3447,7 +3447,7 @@
       <c r="S16" s="289" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row r="17" ht="24" customHeight="1" s="92" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="17" s="92" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
       <c r="A18" s="133" t="n">
         <v>1</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
       <c r="A19" s="137" t="n">
         <v>2</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
       <c r="A20" s="133" t="n">
         <v>3</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
       <c r="A21" s="137" t="n">
         <v>4</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
       <c r="A22" s="133" t="n">
         <v>5</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
       <c r="A23" s="137" t="n">
         <v>6</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
       <c r="A24" s="133" t="n">
         <v>7</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
       <c r="A25" s="137" t="n">
         <v>8</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
       <c r="A26" s="133" t="n">
         <v>9</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
       <c r="A27" s="137" t="n">
         <v>10</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
       <c r="A28" s="133" t="n">
         <v>11</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
       <c r="A29" s="137" t="n">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
       <c r="A30" s="133" t="n">
         <v>13</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
       <c r="A31" s="137" t="n">
         <v>14</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
       <c r="A32" s="133" t="n">
         <v>15</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
       <c r="A33" s="137" t="n">
         <v>17</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
       <c r="A34" s="133" t="n">
         <v>18</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
       <c r="A35" s="137" t="n">
         <v>19</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
       <c r="A36" s="133" t="n">
         <v>20</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
       <c r="A37" s="141" t="n">
         <v>21</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="15.75" r="38" s="92" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -4525,7 +4525,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="92">
+    <row customHeight="1" ht="15.75" r="39" s="92">
       <c r="A39" s="235" t="n"/>
       <c r="O39" s="237" t="n"/>
       <c r="T39" s="91" t="n"/>
@@ -4565,16 +4565,6 @@
       <c r="BB39" s="91" t="n"/>
       <c r="BC39" s="91" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="75">
     <mergeCell ref="B36:H36"/>
@@ -4654,8 +4644,8 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -4673,25 +4663,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="3.42578125" customWidth="1" style="13" min="1" max="1"/>
-    <col width="10.42578125" customWidth="1" style="13" min="2" max="3"/>
-    <col width="18.28515625" customWidth="1" style="13" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="13" min="5" max="5"/>
-    <col width="2.5703125" customWidth="1" style="13" min="6" max="7"/>
-    <col width="5.28515625" customWidth="1" style="13" min="8" max="8"/>
-    <col width="7.42578125" customWidth="1" style="13" min="9" max="19"/>
-    <col width="9.140625" customWidth="1" style="13" min="20" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="13" width="3.42578125"/>
+    <col customWidth="1" max="3" min="2" style="13" width="10.42578125"/>
+    <col customWidth="1" max="4" min="4" style="13" width="18.28515625"/>
+    <col customWidth="1" max="5" min="5" style="13" width="5.28515625"/>
+    <col customWidth="1" max="7" min="6" style="13" width="2.5703125"/>
+    <col customWidth="1" max="8" min="8" style="13" width="5.28515625"/>
+    <col customWidth="1" max="19" min="9" style="13" width="7.42578125"/>
+    <col customWidth="1" max="16384" min="20" style="13" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="39" r="1" s="92" thickBot="1">
       <c r="A1" s="163" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -4712,7 +4702,7 @@
       <c r="R1" s="260" t="n"/>
       <c r="S1" s="260" t="n"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="2" s="92" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -4749,7 +4739,7 @@
       <c r="R2" s="264" t="n"/>
       <c r="S2" s="262" t="n"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="3" s="92">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -4784,7 +4774,7 @@
       <c r="R3" s="270" t="n"/>
       <c r="S3" s="273" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="4" s="92" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -4813,7 +4803,7 @@
       <c r="R4" s="260" t="n"/>
       <c r="S4" s="278" t="n"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="5" s="92" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -4858,7 +4848,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="6" s="92">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -4915,7 +4905,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="7" s="92">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -4966,7 +4956,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="8" s="92" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -5017,7 +5007,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="9" s="92" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -5064,7 +5054,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="10" s="92">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -5109,7 +5099,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="11" s="92">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -5154,7 +5144,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="12" s="92">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -5200,7 +5190,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="13" s="92">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -5245,7 +5235,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="14" s="92">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -5285,7 +5275,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="15" s="92">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -5329,7 +5319,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="16" s="92" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -5371,7 +5361,7 @@
       <c r="S16" s="289" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row r="17" ht="24" customHeight="1" s="92" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="17" s="92" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -5444,7 +5434,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
       <c r="A18" s="133" t="n">
         <v>22</v>
       </c>
@@ -5491,7 +5481,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
       <c r="A19" s="137" t="n">
         <v>23</v>
       </c>
@@ -5538,7 +5528,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
       <c r="A20" s="133" t="n">
         <v>24</v>
       </c>
@@ -5585,7 +5575,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
       <c r="A21" s="137" t="n"/>
       <c r="B21" s="307" t="n"/>
       <c r="C21" s="298" t="n"/>
@@ -5618,7 +5608,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
       <c r="A22" s="133" t="n"/>
       <c r="B22" s="307" t="n"/>
       <c r="C22" s="298" t="n"/>
@@ -5651,7 +5641,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
       <c r="A23" s="137" t="n"/>
       <c r="B23" s="307" t="n"/>
       <c r="C23" s="298" t="n"/>
@@ -5684,7 +5674,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
       <c r="A24" s="133" t="n"/>
       <c r="B24" s="307" t="n"/>
       <c r="C24" s="298" t="n"/>
@@ -5717,7 +5707,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
       <c r="A25" s="137" t="n"/>
       <c r="B25" s="307" t="n"/>
       <c r="C25" s="298" t="n"/>
@@ -5750,7 +5740,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
       <c r="A26" s="133" t="n"/>
       <c r="B26" s="307" t="n"/>
       <c r="C26" s="298" t="n"/>
@@ -5783,7 +5773,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
       <c r="A27" s="137" t="n"/>
       <c r="B27" s="307" t="n"/>
       <c r="C27" s="298" t="n"/>
@@ -5816,7 +5806,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
       <c r="A28" s="133" t="n"/>
       <c r="B28" s="307" t="n"/>
       <c r="C28" s="298" t="n"/>
@@ -5849,7 +5839,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
       <c r="A29" s="137" t="n"/>
       <c r="B29" s="307" t="n"/>
       <c r="C29" s="298" t="n"/>
@@ -5887,7 +5877,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
       <c r="A30" s="133" t="n"/>
       <c r="B30" s="307" t="n"/>
       <c r="C30" s="298" t="n"/>
@@ -5920,7 +5910,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
       <c r="A31" s="137" t="n"/>
       <c r="B31" s="307" t="n"/>
       <c r="C31" s="298" t="n"/>
@@ -5953,7 +5943,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
       <c r="A32" s="133" t="n"/>
       <c r="B32" s="307" t="n"/>
       <c r="C32" s="298" t="n"/>
@@ -5986,7 +5976,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
       <c r="A33" s="137" t="n"/>
       <c r="B33" s="307" t="n"/>
       <c r="C33" s="298" t="n"/>
@@ -6019,7 +6009,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
       <c r="A34" s="133" t="n"/>
       <c r="B34" s="307" t="n"/>
       <c r="C34" s="298" t="n"/>
@@ -6052,7 +6042,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
       <c r="A35" s="137" t="n"/>
       <c r="B35" s="307" t="n"/>
       <c r="C35" s="298" t="n"/>
@@ -6085,7 +6075,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
       <c r="A36" s="133" t="n"/>
       <c r="B36" s="307" t="n"/>
       <c r="C36" s="298" t="n"/>
@@ -6118,7 +6108,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
       <c r="A37" s="141" t="n"/>
       <c r="B37" s="309" t="n"/>
       <c r="C37" s="301" t="n"/>
@@ -6151,7 +6141,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="15.75" r="38" s="92" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -6211,7 +6201,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="92">
+    <row customHeight="1" ht="15.75" r="39" s="92">
       <c r="A39" s="235" t="n"/>
       <c r="O39" s="237" t="n"/>
       <c r="T39" s="91" t="n"/>
@@ -6251,16 +6241,6 @@
       <c r="BB39" s="91" t="n"/>
       <c r="BC39" s="91" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="76">
     <mergeCell ref="A1:S1"/>
@@ -6341,8 +6321,8 @@
     <mergeCell ref="B33:H33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -6362,16 +6342,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="BU26" sqref="BU26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="244" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -6450,7 +6430,7 @@
       <c r="BX1" s="260" t="n"/>
       <c r="BY1" s="260" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -6529,7 +6509,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -6608,7 +6588,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -6687,7 +6667,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -6766,7 +6746,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -6845,7 +6825,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -6924,7 +6904,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -7003,7 +6983,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -7082,7 +7062,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -7161,7 +7141,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -7240,7 +7220,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -7319,7 +7299,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -7398,7 +7378,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -7477,7 +7457,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -7575,7 +7555,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -7673,7 +7653,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -7771,7 +7751,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -7869,7 +7849,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -7967,7 +7947,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -8065,7 +8045,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -8163,7 +8143,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -8261,7 +8241,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -8359,7 +8339,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -8438,7 +8418,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -8517,7 +8497,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -8596,7 +8576,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -8675,7 +8655,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -8754,7 +8734,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -8833,7 +8813,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -8912,7 +8892,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -8991,7 +8971,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -9070,7 +9050,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -9149,7 +9129,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -9228,7 +9208,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -9307,7 +9287,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -9386,7 +9366,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -9465,7 +9445,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="310" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -9548,7 +9528,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="312" t="inlineStr">
         <is>
           <t>Date</t>
@@ -9633,7 +9613,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="312" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9743,7 +9723,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="312" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -9849,7 +9829,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="312" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -9955,7 +9935,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="312" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -10065,7 +10045,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="312" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -10175,7 +10155,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="315" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -10281,15 +10261,12 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -10314,8 +10291,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -10335,16 +10312,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AU40" sqref="AU40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="244" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -10423,7 +10400,7 @@
       <c r="BX1" s="260" t="n"/>
       <c r="BY1" s="260" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -10502,7 +10479,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -10581,7 +10558,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -10660,7 +10637,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -10739,7 +10716,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -10818,7 +10795,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -10897,7 +10874,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -10976,7 +10953,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -11055,7 +11032,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -11134,7 +11111,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -11213,7 +11190,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -11292,7 +11269,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -11371,7 +11348,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -11450,7 +11427,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -11548,7 +11525,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -11646,7 +11623,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -11744,7 +11721,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -11842,7 +11819,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -11940,7 +11917,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -12038,7 +12015,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -12136,7 +12113,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -12234,7 +12211,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -12332,7 +12309,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -12411,7 +12388,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -12490,7 +12467,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -12569,7 +12546,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -12648,7 +12625,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -12727,7 +12704,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -12806,7 +12783,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -12885,7 +12862,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -12964,7 +12941,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -13043,7 +13020,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -13122,7 +13099,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -13201,7 +13178,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -13280,7 +13257,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -13359,7 +13336,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -13438,7 +13415,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="310" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -13521,7 +13498,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="312" t="inlineStr">
         <is>
           <t>Date</t>
@@ -13606,7 +13583,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="312" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -13716,7 +13693,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="312" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -13822,7 +13799,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="312" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -13928,7 +13905,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="312" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -14038,7 +14015,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="312" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -14148,7 +14125,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="315" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -14254,15 +14231,12 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -14287,8 +14261,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -14308,16 +14282,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="244" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -14396,7 +14370,7 @@
       <c r="BX1" s="260" t="n"/>
       <c r="BY1" s="260" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -14475,7 +14449,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -14554,7 +14528,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -14633,7 +14607,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -14712,7 +14686,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -14791,7 +14765,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -14870,7 +14844,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -14949,7 +14923,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -15028,7 +15002,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -15107,7 +15081,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -15186,7 +15160,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -15265,7 +15239,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -15344,7 +15318,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -15423,7 +15397,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -15521,7 +15495,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -15619,7 +15593,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -15717,7 +15691,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -15815,7 +15789,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -15913,7 +15887,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -16011,7 +15985,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -16109,7 +16083,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -16207,7 +16181,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -16305,7 +16279,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -16384,7 +16358,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -16463,7 +16437,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -16542,7 +16516,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -16621,7 +16595,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -16700,7 +16674,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -16779,7 +16753,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -16858,7 +16832,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -16937,7 +16911,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -17016,7 +16990,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -17095,7 +17069,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -17174,7 +17148,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -17253,7 +17227,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -17332,7 +17306,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -17411,7 +17385,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="310" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -17494,7 +17468,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="312" t="inlineStr">
         <is>
           <t>Date</t>
@@ -17579,7 +17553,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="312" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -17689,7 +17663,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="312" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -17795,7 +17769,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="312" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -17901,7 +17875,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="312" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -18011,7 +17985,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="312" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -18121,7 +18095,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="315" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -18227,15 +18201,12 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -18260,8 +18231,8 @@
     <mergeCell ref="K39:Y39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -18281,16 +18252,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="244" t="n"/>
       <c r="B1" s="260" t="n"/>
       <c r="C1" s="260" t="n"/>
@@ -18369,7 +18340,7 @@
       <c r="BX1" s="260" t="n"/>
       <c r="BY1" s="260" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -18448,7 +18419,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -18527,7 +18498,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -18606,7 +18577,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -18685,7 +18656,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -18764,7 +18735,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -18843,7 +18814,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -18922,7 +18893,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -19001,7 +18972,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -19080,7 +19051,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -19159,7 +19130,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -19238,7 +19209,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -19317,7 +19288,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -19396,7 +19367,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -19494,7 +19465,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -19592,7 +19563,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -19690,7 +19661,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -19788,7 +19759,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -19886,7 +19857,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -19984,7 +19955,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -20082,7 +20053,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -20180,7 +20151,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -20278,7 +20249,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -20357,7 +20328,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -20436,7 +20407,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -20515,7 +20486,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -20594,7 +20565,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -20673,7 +20644,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -20752,7 +20723,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -20831,7 +20802,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -20910,7 +20881,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -20989,7 +20960,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -21068,7 +21039,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -21147,7 +21118,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -21226,7 +21197,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -21305,7 +21276,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -21384,7 +21355,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="310" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -21467,7 +21438,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="312" t="inlineStr">
         <is>
           <t>Date</t>
@@ -21552,7 +21523,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="312" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -21662,7 +21633,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="312" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -21768,7 +21739,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="312" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -21874,7 +21845,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="312" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -21984,7 +21955,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="312" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -22094,7 +22065,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="315" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -22200,15 +22171,12 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -22233,8 +22201,8 @@
     <mergeCell ref="K45:Y45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
